--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/adriana/Desktop/uarizona-csc-courses/csc-110/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7D0D48C-E1B4-FE4C-815C-710792B024F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925744EF-89E5-2A42-B47D-E14AF6753F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36960" yWindow="2180" windowWidth="28040" windowHeight="17440" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="34">
   <si>
     <t>week_start</t>
   </si>
@@ -129,6 +129,15 @@
   </si>
   <si>
     <t>Input and Output</t>
+  </si>
+  <si>
+    <t>spring 2024</t>
+  </si>
+  <si>
+    <t>Martin Luther King Jr Holiday</t>
+  </si>
+  <si>
+    <t>Spring recess</t>
   </si>
 </sst>
 </file>
@@ -498,10 +507,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -983,6 +992,267 @@
         <v>27</v>
       </c>
     </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1">
+        <v>45301</v>
+      </c>
+      <c r="E32" s="1">
+        <v>45306</v>
+      </c>
+      <c r="G32" t="s">
+        <v>32</v>
+      </c>
+      <c r="H32" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1">
+        <v>45308</v>
+      </c>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>31</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1">
+        <v>45315</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="H34" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B35">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1">
+        <v>45322</v>
+      </c>
+      <c r="H35" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B36">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1">
+        <v>45329</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>45329</v>
+      </c>
+      <c r="H36" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B37">
+        <v>6</v>
+      </c>
+      <c r="C37" s="1">
+        <v>45336</v>
+      </c>
+      <c r="H37" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>45343</v>
+      </c>
+      <c r="H38" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>31</v>
+      </c>
+      <c r="B39">
+        <v>8</v>
+      </c>
+      <c r="C39" s="1">
+        <v>45350</v>
+      </c>
+      <c r="H39" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1">
+        <v>45357</v>
+      </c>
+      <c r="E40" s="1">
+        <v>45353</v>
+      </c>
+      <c r="G40" t="s">
+        <v>33</v>
+      </c>
+      <c r="H40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>9</v>
+      </c>
+      <c r="C41" s="1">
+        <v>45362</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42">
+        <v>10</v>
+      </c>
+      <c r="C42" s="1">
+        <v>45364</v>
+      </c>
+      <c r="D42" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="1">
+        <v>45371</v>
+      </c>
+      <c r="H42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>11</v>
+      </c>
+      <c r="C43" s="1">
+        <v>45371</v>
+      </c>
+      <c r="H43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44">
+        <v>12</v>
+      </c>
+      <c r="C44" s="1">
+        <v>45378</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="H44" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B45">
+        <v>13</v>
+      </c>
+      <c r="C45" s="1">
+        <v>45385</v>
+      </c>
+      <c r="D45" t="s">
+        <v>5</v>
+      </c>
+      <c r="E45" s="1">
+        <v>45399</v>
+      </c>
+      <c r="H45" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>31</v>
+      </c>
+      <c r="B46">
+        <v>14</v>
+      </c>
+      <c r="C46" s="1">
+        <v>45392</v>
+      </c>
+      <c r="E46" s="1"/>
+      <c r="H46" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>31</v>
+      </c>
+      <c r="B47">
+        <v>15</v>
+      </c>
+      <c r="C47" s="1">
+        <v>45415</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45415</v>
+      </c>
+      <c r="F47" t="s">
+        <v>11</v>
+      </c>
+      <c r="H47" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{925744EF-89E5-2A42-B47D-E14AF6753F83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5046B2-09BD-F942-AAB3-17297D7B534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
   <si>
     <t>week_start</t>
   </si>
@@ -507,9 +507,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
-  <dimension ref="A1:H47"/>
+  <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
       <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
@@ -1131,7 +1131,7 @@
         <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -1145,6 +1145,9 @@
         <v>45362</v>
       </c>
       <c r="E41" s="1"/>
+      <c r="H41" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -1238,19 +1241,31 @@
         <v>15</v>
       </c>
       <c r="C47" s="1">
+        <v>45399</v>
+      </c>
+      <c r="E47" s="1"/>
+      <c r="H47" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48">
+        <v>16</v>
+      </c>
+      <c r="C48" s="1">
         <v>45415</v>
       </c>
-      <c r="D47" t="s">
+      <c r="D48" t="s">
         <v>6</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E48" s="1">
         <v>45415</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F48" t="s">
         <v>11</v>
-      </c>
-      <c r="H47" t="s">
-        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B5046B2-09BD-F942-AAB3-17297D7B534B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E892C-B0FD-2940-880D-09F2F107264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
   <si>
     <t>week_start</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>Spring recess</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 2-10, 2024 </t>
   </si>
 </sst>
 </file>
@@ -509,8 +512,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1121,6 +1124,9 @@
       <c r="A40" t="s">
         <v>31</v>
       </c>
+      <c r="B40" t="s">
+        <v>33</v>
+      </c>
       <c r="C40" s="1">
         <v>45357</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>45353</v>
       </c>
       <c r="G40" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H40" t="s">
         <v>33</v>
@@ -1266,6 +1272,9 @@
       </c>
       <c r="F48" t="s">
         <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A76E892C-B0FD-2940-880D-09F2F107264A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06683624-14E6-9548-B8AC-FEE2205D8609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="40">
   <si>
     <t>week_start</t>
   </si>
@@ -141,6 +141,21 @@
   </si>
   <si>
     <t xml:space="preserve">March 2-10, 2024 </t>
+  </si>
+  <si>
+    <t>Sorting, Exception handling</t>
+  </si>
+  <si>
+    <t>Random Module, Data Structures (tuples)</t>
+  </si>
+  <si>
+    <t>Operators and Expressions</t>
+  </si>
+  <si>
+    <t>Functions</t>
+  </si>
+  <si>
+    <t>For loops, 2D lists</t>
   </si>
 </sst>
 </file>
@@ -512,8 +527,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1026,7 +1041,7 @@
         <v>45308</v>
       </c>
       <c r="H33" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1041,7 +1056,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="H34" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1117,7 +1132,7 @@
         <v>45350</v>
       </c>
       <c r="H39" t="s">
-        <v>23</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -1186,7 +1201,7 @@
         <v>45371</v>
       </c>
       <c r="H43" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -1251,7 +1266,7 @@
       </c>
       <c r="E47" s="1"/>
       <c r="H47" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06683624-14E6-9548-B8AC-FEE2205D8609}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56331FAE-7DC7-3045-9A78-28F8E8391F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="33200" yWindow="260" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="F47" sqref="F47"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1083,12 +1083,6 @@
       <c r="C36" s="1">
         <v>45329</v>
       </c>
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>45329</v>
-      </c>
       <c r="H36" t="s">
         <v>21</v>
       </c>
@@ -1115,6 +1109,12 @@
         <v>7</v>
       </c>
       <c r="C38" s="1">
+        <v>45343</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E38" s="1">
         <v>45343</v>
       </c>
       <c r="H38" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56331FAE-7DC7-3045-9A78-28F8E8391F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B00AB0-9443-F446-9702-75CDBADFCB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33200" yWindow="260" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
   <si>
     <t>week_start</t>
   </si>
@@ -525,10 +525,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
-  <dimension ref="A1:H48"/>
+  <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,7 +1160,7 @@
         <v>31</v>
       </c>
       <c r="B41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" s="1">
         <v>45362</v>
@@ -1175,7 +1175,7 @@
         <v>31</v>
       </c>
       <c r="B42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" s="1">
         <v>45364</v>
@@ -1195,7 +1195,7 @@
         <v>31</v>
       </c>
       <c r="B43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" s="1">
         <v>45371</v>
@@ -1209,7 +1209,7 @@
         <v>31</v>
       </c>
       <c r="B44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" s="1">
         <v>45378</v>
@@ -1224,7 +1224,7 @@
         <v>31</v>
       </c>
       <c r="B45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" s="1">
         <v>45385</v>
@@ -1244,7 +1244,7 @@
         <v>31</v>
       </c>
       <c r="B46">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C46" s="1">
         <v>45392</v>
@@ -1259,7 +1259,7 @@
         <v>31</v>
       </c>
       <c r="B47">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C47" s="1">
         <v>45399</v>
@@ -1274,22 +1274,33 @@
         <v>31</v>
       </c>
       <c r="B48">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C48" s="1">
-        <v>45415</v>
-      </c>
-      <c r="D48" t="s">
-        <v>6</v>
-      </c>
-      <c r="E48" s="1">
-        <v>45415</v>
-      </c>
-      <c r="F48" t="s">
-        <v>11</v>
+        <v>45406</v>
       </c>
       <c r="H48" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49">
+        <v>16</v>
+      </c>
+      <c r="C49" s="1">
+        <v>45415</v>
+      </c>
+      <c r="D49" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45415</v>
+      </c>
+      <c r="F49" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2B00AB0-9443-F446-9702-75CDBADFCB4E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F871F-4CA6-8B43-B958-83A0F3A12BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33200" yWindow="260" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="C49" sqref="C49"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1097,6 +1097,12 @@
       <c r="C37" s="1">
         <v>45336</v>
       </c>
+      <c r="D37" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="1">
+        <v>45336</v>
+      </c>
       <c r="H37" t="s">
         <v>22</v>
       </c>
@@ -1109,12 +1115,6 @@
         <v>7</v>
       </c>
       <c r="C38" s="1">
-        <v>45343</v>
-      </c>
-      <c r="D38" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="1">
         <v>45343</v>
       </c>
       <c r="H38" t="s">
@@ -1180,12 +1180,6 @@
       <c r="C42" s="1">
         <v>45364</v>
       </c>
-      <c r="D42" t="s">
-        <v>4</v>
-      </c>
-      <c r="E42" s="1">
-        <v>45371</v>
-      </c>
       <c r="H42" t="s">
         <v>30</v>
       </c>
@@ -1214,7 +1208,12 @@
       <c r="C44" s="1">
         <v>45378</v>
       </c>
-      <c r="E44" s="1"/>
+      <c r="D44" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="1">
+        <v>45378</v>
+      </c>
       <c r="H44" t="s">
         <v>26</v>
       </c>
@@ -1228,12 +1227,6 @@
       </c>
       <c r="C45" s="1">
         <v>45385</v>
-      </c>
-      <c r="D45" t="s">
-        <v>5</v>
-      </c>
-      <c r="E45" s="1">
-        <v>45399</v>
       </c>
       <c r="H45" t="s">
         <v>28</v>
@@ -1277,6 +1270,12 @@
         <v>15</v>
       </c>
       <c r="C48" s="1">
+        <v>45406</v>
+      </c>
+      <c r="D48" t="s">
+        <v>5</v>
+      </c>
+      <c r="E48" s="1">
         <v>45406</v>
       </c>
       <c r="H48" t="s">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408F871F-4CA6-8B43-B958-83A0F3A12BFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2421AB5-F6FE-1048-96E6-0A5633D4024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="33200" yWindow="260" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
   <si>
     <t>week_start</t>
   </si>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+      <selection activeCell="G48" sqref="G48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1160,7 +1160,7 @@
         <v>31</v>
       </c>
       <c r="B41">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" s="1">
         <v>45362</v>
@@ -1175,7 +1175,7 @@
         <v>31</v>
       </c>
       <c r="B42">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C42" s="1">
         <v>45364</v>
@@ -1189,7 +1189,7 @@
         <v>31</v>
       </c>
       <c r="B43">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C43" s="1">
         <v>45371</v>
@@ -1203,7 +1203,7 @@
         <v>31</v>
       </c>
       <c r="B44">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C44" s="1">
         <v>45378</v>
@@ -1223,7 +1223,7 @@
         <v>31</v>
       </c>
       <c r="B45">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C45" s="1">
         <v>45385</v>
@@ -1237,7 +1237,7 @@
         <v>31</v>
       </c>
       <c r="B46">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" s="1">
         <v>45392</v>
@@ -1252,7 +1252,7 @@
         <v>31</v>
       </c>
       <c r="B47">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C47" s="1">
         <v>45399</v>
@@ -1267,7 +1267,7 @@
         <v>31</v>
       </c>
       <c r="B48">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C48" s="1">
         <v>45406</v>
@@ -1282,12 +1282,12 @@
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>31</v>
       </c>
       <c r="B49">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C49" s="1">
         <v>45415</v>
@@ -1300,6 +1300,9 @@
       </c>
       <c r="F49" t="s">
         <v>11</v>
+      </c>
+      <c r="H49" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2421AB5-F6FE-1048-96E6-0A5633D4024B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C217FBF-5A74-3243-9083-E7B527D1E11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33200" yWindow="260" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="G48" sqref="G48"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1178,7 +1178,7 @@
         <v>10</v>
       </c>
       <c r="C42" s="1">
-        <v>45364</v>
+        <v>45369</v>
       </c>
       <c r="H42" t="s">
         <v>30</v>
@@ -1192,7 +1192,13 @@
         <v>11</v>
       </c>
       <c r="C43" s="1">
-        <v>45371</v>
+        <v>45376</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" s="1">
+        <v>45378</v>
       </c>
       <c r="H43" t="s">
         <v>36</v>
@@ -1206,14 +1212,9 @@
         <v>12</v>
       </c>
       <c r="C44" s="1">
-        <v>45378</v>
-      </c>
-      <c r="D44" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="1">
-        <v>45378</v>
-      </c>
+        <v>45383</v>
+      </c>
+      <c r="E44" s="1"/>
       <c r="H44" t="s">
         <v>26</v>
       </c>
@@ -1226,7 +1227,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="1">
-        <v>45385</v>
+        <v>45390</v>
       </c>
       <c r="H45" t="s">
         <v>28</v>
@@ -1240,7 +1241,7 @@
         <v>14</v>
       </c>
       <c r="C46" s="1">
-        <v>45392</v>
+        <v>45397</v>
       </c>
       <c r="E46" s="1"/>
       <c r="H46" t="s">
@@ -1255,9 +1256,14 @@
         <v>15</v>
       </c>
       <c r="C47" s="1">
-        <v>45399</v>
-      </c>
-      <c r="E47" s="1"/>
+        <v>45404</v>
+      </c>
+      <c r="D47" t="s">
+        <v>5</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45406</v>
+      </c>
       <c r="H47" t="s">
         <v>35</v>
       </c>
@@ -1270,13 +1276,7 @@
         <v>16</v>
       </c>
       <c r="C48" s="1">
-        <v>45406</v>
-      </c>
-      <c r="D48" t="s">
-        <v>5</v>
-      </c>
-      <c r="E48" s="1">
-        <v>45406</v>
+        <v>45411</v>
       </c>
       <c r="H48" t="s">
         <v>27</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C217FBF-5A74-3243-9083-E7B527D1E11B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694924ED-D278-3545-AC8A-145AABF3DC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -528,7 +528,7 @@
   <dimension ref="A1:H49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{694924ED-D278-3545-AC8A-145AABF3DC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F668D5A9-4BF9-3942-97EA-EF361C99A6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="-2020" yWindow="880" windowWidth="16460" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
   <si>
     <t>week_start</t>
   </si>
@@ -146,16 +146,25 @@
     <t>Sorting, Exception handling</t>
   </si>
   <si>
-    <t>Random Module, Data Structures (tuples)</t>
-  </si>
-  <si>
-    <t>Operators and Expressions</t>
-  </si>
-  <si>
-    <t>Functions</t>
-  </si>
-  <si>
-    <t>For loops, 2D lists</t>
+    <t>Python Basics (constants, variables, comments, strings, print)</t>
+  </si>
+  <si>
+    <t>Operators and Expressions, intro to functions</t>
+  </si>
+  <si>
+    <t>Functions, input from user</t>
+  </si>
+  <si>
+    <t>Control Flow (for loops), Dictionaries</t>
+  </si>
+  <si>
+    <t>Files and strings</t>
+  </si>
+  <si>
+    <t>2D lists, nested for loops</t>
+  </si>
+  <si>
+    <t>Control Flow (for loops), mutability, random</t>
   </si>
 </sst>
 </file>
@@ -527,8 +536,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
   <dimension ref="A1:H49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="129" zoomScaleNormal="129" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1027,7 +1036,7 @@
         <v>32</v>
       </c>
       <c r="H32" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1118,7 +1127,7 @@
         <v>45343</v>
       </c>
       <c r="H38" t="s">
-        <v>23</v>
+        <v>42</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -1167,7 +1176,7 @@
       </c>
       <c r="E41" s="1"/>
       <c r="H41" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -1181,7 +1190,7 @@
         <v>45369</v>
       </c>
       <c r="H42" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -1201,7 +1210,7 @@
         <v>45378</v>
       </c>
       <c r="H43" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/picoral/Documents/csc-110-spring2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F668D5A9-4BF9-3942-97EA-EF361C99A6FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BAB5A7-3422-D84D-8406-A9CC29612444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2020" yWindow="880" windowWidth="16460" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="3320" yWindow="1360" windowWidth="28240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="45">
   <si>
     <t>week_start</t>
   </si>
@@ -165,16 +165,23 @@
   </si>
   <si>
     <t>Control Flow (for loops), mutability, random</t>
+  </si>
+  <si>
+    <t>fall 2024</t>
+  </si>
+  <si>
+    <t>Sorting + Review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,6 +201,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,10 +229,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -238,9 +252,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -278,7 +292,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -384,7 +398,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -526,7 +540,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -534,10 +548,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
-  <dimension ref="A1:H49"/>
+  <dimension ref="A1:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1314,6 +1328,244 @@
         <v>6</v>
       </c>
     </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>43</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" s="1">
+        <v>45530</v>
+      </c>
+      <c r="H50" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1">
+        <v>45537</v>
+      </c>
+      <c r="G51" t="s">
+        <v>13</v>
+      </c>
+      <c r="H51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52">
+        <v>3</v>
+      </c>
+      <c r="C52" s="1">
+        <v>45544</v>
+      </c>
+      <c r="H52" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>43</v>
+      </c>
+      <c r="B53">
+        <v>4</v>
+      </c>
+      <c r="C53" s="1">
+        <v>45551</v>
+      </c>
+      <c r="H53" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>43</v>
+      </c>
+      <c r="B54">
+        <v>5</v>
+      </c>
+      <c r="C54" s="1">
+        <v>45558</v>
+      </c>
+      <c r="H54" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>43</v>
+      </c>
+      <c r="B55">
+        <v>6</v>
+      </c>
+      <c r="C55" s="1">
+        <v>45565</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45567</v>
+      </c>
+      <c r="F55" s="3"/>
+      <c r="H55" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>43</v>
+      </c>
+      <c r="B56">
+        <v>7</v>
+      </c>
+      <c r="C56" s="1">
+        <v>45572</v>
+      </c>
+      <c r="H56" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>43</v>
+      </c>
+      <c r="B57">
+        <v>8</v>
+      </c>
+      <c r="C57" s="1">
+        <v>45579</v>
+      </c>
+      <c r="H57" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>43</v>
+      </c>
+      <c r="B58">
+        <v>9</v>
+      </c>
+      <c r="C58" s="1">
+        <v>45586</v>
+      </c>
+      <c r="H58" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>43</v>
+      </c>
+      <c r="B59">
+        <v>10</v>
+      </c>
+      <c r="C59" s="1">
+        <v>45593</v>
+      </c>
+      <c r="D59" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3">
+        <v>45595</v>
+      </c>
+      <c r="H59" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>43</v>
+      </c>
+      <c r="B60">
+        <v>11</v>
+      </c>
+      <c r="C60" s="1">
+        <v>45600</v>
+      </c>
+      <c r="H60" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61">
+        <v>12</v>
+      </c>
+      <c r="C61" s="1">
+        <v>45607</v>
+      </c>
+      <c r="G61" t="s">
+        <v>14</v>
+      </c>
+      <c r="H61" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62">
+        <v>13</v>
+      </c>
+      <c r="C62" s="1">
+        <v>45614</v>
+      </c>
+      <c r="D62" t="s">
+        <v>5</v>
+      </c>
+      <c r="E62" s="3">
+        <v>45616</v>
+      </c>
+      <c r="H62" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>43</v>
+      </c>
+      <c r="B63">
+        <v>14</v>
+      </c>
+      <c r="C63" s="1">
+        <v>45621</v>
+      </c>
+      <c r="H63" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>43</v>
+      </c>
+      <c r="B64">
+        <v>15</v>
+      </c>
+      <c r="C64" s="1">
+        <v>45628</v>
+      </c>
+      <c r="D64" t="s">
+        <v>6</v>
+      </c>
+      <c r="H64" t="s">
+        <v>44</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97BAB5A7-3422-D84D-8406-A9CC29612444}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BE7B0B-C1BC-FE46-9770-1EC7F8981CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3320" yWindow="1360" windowWidth="28240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="1080" yWindow="760" windowWidth="28380" windowHeight="12820" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
   <si>
     <t>week_start</t>
   </si>
@@ -170,7 +170,55 @@
     <t>fall 2024</t>
   </si>
   <si>
-    <t>Sorting + Review</t>
+    <t>module</t>
+  </si>
+  <si>
+    <t>Module 1</t>
+  </si>
+  <si>
+    <t>Module 2</t>
+  </si>
+  <si>
+    <t>Module 3</t>
+  </si>
+  <si>
+    <t>Module 4</t>
+  </si>
+  <si>
+    <t>Module 5</t>
+  </si>
+  <si>
+    <t>Module 6</t>
+  </si>
+  <si>
+    <t>Module 7</t>
+  </si>
+  <si>
+    <t>Module 8</t>
+  </si>
+  <si>
+    <t>Module 9</t>
+  </si>
+  <si>
+    <t>Module 10</t>
+  </si>
+  <si>
+    <t>Module 11</t>
+  </si>
+  <si>
+    <t>Module 12</t>
+  </si>
+  <si>
+    <t>Module 13</t>
+  </si>
+  <si>
+    <t>Module 14</t>
+  </si>
+  <si>
+    <t>Module 15</t>
+  </si>
+  <si>
+    <t>Control Flow + Data Structures, sorting</t>
   </si>
 </sst>
 </file>
@@ -548,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
-  <dimension ref="A1:H64"/>
+  <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -561,9 +609,10 @@
     <col min="4" max="4" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.1640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -586,10 +635,13 @@
         <v>12</v>
       </c>
       <c r="H1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -600,7 +652,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -611,7 +663,7 @@
         <v>44944</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -622,7 +674,7 @@
         <v>44951</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -633,7 +685,7 @@
         <v>44958</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -650,7 +702,7 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -661,7 +713,7 @@
         <v>44974</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>8</v>
       </c>
@@ -672,7 +724,7 @@
         <v>44981</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -683,7 +735,7 @@
         <v>44989</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -700,7 +752,7 @@
         <v>45000</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -711,7 +763,7 @@
         <v>45007</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -722,7 +774,7 @@
         <v>45014</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>8</v>
       </c>
@@ -739,7 +791,7 @@
         <v>45035</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -750,7 +802,7 @@
         <v>45028</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -761,7 +813,7 @@
         <v>45037</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>8</v>
       </c>
@@ -778,7 +830,7 @@
         <v>45057</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -788,11 +840,11 @@
       <c r="C17" s="1">
         <v>45159</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>9</v>
       </c>
@@ -802,11 +854,11 @@
       <c r="C18" s="1">
         <v>45166</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -822,11 +874,11 @@
       <c r="G19" t="s">
         <v>13</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>9</v>
       </c>
@@ -836,11 +888,11 @@
       <c r="C20" s="1">
         <v>45182</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -856,11 +908,11 @@
       <c r="E21" s="1">
         <v>45189</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>9</v>
       </c>
@@ -870,11 +922,11 @@
       <c r="C22" s="1">
         <v>45198</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>9</v>
       </c>
@@ -884,11 +936,11 @@
       <c r="C23" s="1">
         <v>45205</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>9</v>
       </c>
@@ -898,11 +950,11 @@
       <c r="C24" s="1">
         <v>45212</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>9</v>
       </c>
@@ -912,11 +964,11 @@
       <c r="C25" s="1">
         <v>45219</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>9</v>
       </c>
@@ -932,11 +984,11 @@
       <c r="E26" s="1">
         <v>45224</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>9</v>
       </c>
@@ -946,11 +998,11 @@
       <c r="C27" s="1">
         <v>45232</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>9</v>
       </c>
@@ -966,11 +1018,11 @@
       <c r="G28" t="s">
         <v>14</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>9</v>
       </c>
@@ -986,11 +1038,11 @@
       <c r="E29" s="1">
         <v>45245</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>9</v>
       </c>
@@ -1006,11 +1058,11 @@
       <c r="G30" t="s">
         <v>15</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>9</v>
       </c>
@@ -1029,11 +1081,11 @@
       <c r="F31" t="s">
         <v>11</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1049,11 +1101,11 @@
       <c r="G32" t="s">
         <v>32</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1063,11 +1115,11 @@
       <c r="C33" s="1">
         <v>45308</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>31</v>
       </c>
@@ -1078,11 +1130,11 @@
         <v>45315</v>
       </c>
       <c r="E34" s="2"/>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>31</v>
       </c>
@@ -1092,11 +1144,11 @@
       <c r="C35" s="1">
         <v>45322</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>31</v>
       </c>
@@ -1106,11 +1158,11 @@
       <c r="C36" s="1">
         <v>45329</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>31</v>
       </c>
@@ -1126,11 +1178,11 @@
       <c r="E37" s="1">
         <v>45336</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>31</v>
       </c>
@@ -1140,11 +1192,11 @@
       <c r="C38" s="1">
         <v>45343</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>31</v>
       </c>
@@ -1154,11 +1206,11 @@
       <c r="C39" s="1">
         <v>45350</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>31</v>
       </c>
@@ -1174,11 +1226,11 @@
       <c r="G40" t="s">
         <v>34</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>31</v>
       </c>
@@ -1189,11 +1241,11 @@
         <v>45362</v>
       </c>
       <c r="E41" s="1"/>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>31</v>
       </c>
@@ -1203,11 +1255,11 @@
       <c r="C42" s="1">
         <v>45369</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>31</v>
       </c>
@@ -1223,11 +1275,11 @@
       <c r="E43" s="1">
         <v>45378</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>31</v>
       </c>
@@ -1238,11 +1290,11 @@
         <v>45383</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="H44" t="s">
+      <c r="I44" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>31</v>
       </c>
@@ -1252,11 +1304,11 @@
       <c r="C45" s="1">
         <v>45390</v>
       </c>
-      <c r="H45" t="s">
+      <c r="I45" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>31</v>
       </c>
@@ -1267,11 +1319,11 @@
         <v>45397</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="H46" t="s">
+      <c r="I46" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>31</v>
       </c>
@@ -1287,11 +1339,11 @@
       <c r="E47" s="1">
         <v>45406</v>
       </c>
-      <c r="H47" t="s">
+      <c r="I47" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>31</v>
       </c>
@@ -1301,11 +1353,11 @@
       <c r="C48" s="1">
         <v>45411</v>
       </c>
-      <c r="H48" t="s">
+      <c r="I48" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>31</v>
       </c>
@@ -1324,11 +1376,11 @@
       <c r="F49" t="s">
         <v>11</v>
       </c>
-      <c r="H49" t="s">
+      <c r="I49" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>43</v>
       </c>
@@ -1339,10 +1391,13 @@
         <v>45530</v>
       </c>
       <c r="H50" t="s">
+        <v>45</v>
+      </c>
+      <c r="I50" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>43</v>
       </c>
@@ -1352,14 +1407,20 @@
       <c r="C51" s="1">
         <v>45537</v>
       </c>
+      <c r="E51" s="3">
+        <v>45537</v>
+      </c>
       <c r="G51" t="s">
         <v>13</v>
       </c>
       <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -1370,10 +1431,13 @@
         <v>45544</v>
       </c>
       <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -1384,10 +1448,13 @@
         <v>45551</v>
       </c>
       <c r="H53" t="s">
+        <v>48</v>
+      </c>
+      <c r="I53" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -1397,11 +1464,20 @@
       <c r="C54" s="1">
         <v>45558</v>
       </c>
+      <c r="D54" t="s">
+        <v>2</v>
+      </c>
+      <c r="E54" s="3">
+        <v>45560</v>
+      </c>
       <c r="H54" t="s">
+        <v>49</v>
+      </c>
+      <c r="I54" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -1411,18 +1487,16 @@
       <c r="C55" s="1">
         <v>45565</v>
       </c>
-      <c r="D55" t="s">
-        <v>2</v>
-      </c>
-      <c r="E55" s="3">
-        <v>45567</v>
-      </c>
+      <c r="E55" s="3"/>
       <c r="F55" s="3"/>
       <c r="H55" t="s">
+        <v>50</v>
+      </c>
+      <c r="I55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -1433,10 +1507,13 @@
         <v>45572</v>
       </c>
       <c r="H56" t="s">
+        <v>51</v>
+      </c>
+      <c r="I56" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -1447,10 +1524,13 @@
         <v>45579</v>
       </c>
       <c r="H57" t="s">
+        <v>52</v>
+      </c>
+      <c r="I57" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -1460,11 +1540,20 @@
       <c r="C58" s="1">
         <v>45586</v>
       </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="3">
+        <v>45588</v>
+      </c>
       <c r="H58" t="s">
+        <v>53</v>
+      </c>
+      <c r="I58" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>43</v>
       </c>
@@ -1474,17 +1563,15 @@
       <c r="C59" s="1">
         <v>45593</v>
       </c>
-      <c r="D59" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="3">
-        <v>45595</v>
-      </c>
+      <c r="E59" s="3"/>
       <c r="H59" t="s">
+        <v>54</v>
+      </c>
+      <c r="I59" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>43</v>
       </c>
@@ -1495,10 +1582,13 @@
         <v>45600</v>
       </c>
       <c r="H60" t="s">
+        <v>55</v>
+      </c>
+      <c r="I60" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>43</v>
       </c>
@@ -1508,14 +1598,20 @@
       <c r="C61" s="1">
         <v>45607</v>
       </c>
+      <c r="E61" s="3">
+        <v>45607</v>
+      </c>
       <c r="G61" t="s">
         <v>14</v>
       </c>
       <c r="H61" t="s">
+        <v>56</v>
+      </c>
+      <c r="I61" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>43</v>
       </c>
@@ -1532,10 +1628,13 @@
         <v>45616</v>
       </c>
       <c r="H62" t="s">
+        <v>57</v>
+      </c>
+      <c r="I62" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>43</v>
       </c>
@@ -1546,10 +1645,13 @@
         <v>45621</v>
       </c>
       <c r="H63" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+        <v>58</v>
+      </c>
+      <c r="I63" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>43</v>
       </c>
@@ -1562,8 +1664,17 @@
       <c r="D64" t="s">
         <v>6</v>
       </c>
+      <c r="E64" s="3">
+        <v>45639</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
       <c r="H64" t="s">
-        <v>44</v>
+        <v>59</v>
+      </c>
+      <c r="I64" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7BE7B0B-C1BC-FE46-9770-1EC7F8981CC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB5C01-5864-984E-8861-3A590DB3B927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="760" windowWidth="28380" windowHeight="12820" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="15840" yWindow="520" windowWidth="32280" windowHeight="20000" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
   <si>
     <t>week_start</t>
   </si>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G67" sqref="G67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1464,12 +1464,7 @@
       <c r="C54" s="1">
         <v>45558</v>
       </c>
-      <c r="D54" t="s">
-        <v>2</v>
-      </c>
-      <c r="E54" s="3">
-        <v>45560</v>
-      </c>
+      <c r="E54" s="3"/>
       <c r="H54" t="s">
         <v>49</v>
       </c>
@@ -1487,7 +1482,12 @@
       <c r="C55" s="1">
         <v>45565</v>
       </c>
-      <c r="E55" s="3"/>
+      <c r="D55" t="s">
+        <v>2</v>
+      </c>
+      <c r="E55" s="3">
+        <v>45567</v>
+      </c>
       <c r="F55" s="3"/>
       <c r="H55" t="s">
         <v>50</v>
@@ -1643,6 +1643,12 @@
       </c>
       <c r="C63" s="1">
         <v>45621</v>
+      </c>
+      <c r="E63" s="3">
+        <v>45624</v>
+      </c>
+      <c r="G63" t="s">
+        <v>15</v>
       </c>
       <c r="H63" t="s">
         <v>58</v>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02DB5C01-5864-984E-8861-3A590DB3B927}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B52833-74BF-DD4C-A866-F1FCBC9FA367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15840" yWindow="520" windowWidth="32280" windowHeight="20000" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
   <si>
     <t>week_start</t>
   </si>
@@ -599,7 +599,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1670,12 +1670,8 @@
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="3">
-        <v>45639</v>
-      </c>
-      <c r="F64" t="s">
-        <v>11</v>
-      </c>
+      <c r="E64" s="3"/>
+      <c r="F64" s="3"/>
       <c r="H64" t="s">
         <v>59</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1B52833-74BF-DD4C-A866-F1FCBC9FA367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D4E9D1-1290-7E4A-AD66-3A025875D341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15840" yWindow="520" windowWidth="32280" windowHeight="20000" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="6120" yWindow="520" windowWidth="32280" windowHeight="20000" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
   <si>
     <t>week_start</t>
   </si>
@@ -599,7 +599,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+      <selection activeCell="F68" sqref="F68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1670,8 +1670,12 @@
       <c r="D64" t="s">
         <v>6</v>
       </c>
-      <c r="E64" s="3"/>
-      <c r="F64" s="3"/>
+      <c r="E64" s="1">
+        <v>45639</v>
+      </c>
+      <c r="F64" t="s">
+        <v>11</v>
+      </c>
       <c r="H64" t="s">
         <v>59</v>
       </c>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D4E9D1-1290-7E4A-AD66-3A025875D341}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C1A3F-87FD-9340-B991-21B036DF89EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6120" yWindow="520" windowWidth="32280" windowHeight="20000" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -218,7 +218,7 @@
     <t>Module 15</t>
   </si>
   <si>
-    <t>Control Flow + Data Structures, sorting</t>
+    <t>Sorting, Review</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A1:I64"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F68" sqref="F68"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1654,7 +1654,7 @@
         <v>58</v>
       </c>
       <c r="I63" t="s">
-        <v>60</v>
+        <v>29</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -1680,7 +1680,7 @@
         <v>59</v>
       </c>
       <c r="I64" t="s">
-        <v>27</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-fall2024/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31C1A3F-87FD-9340-B991-21B036DF89EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4790A412-A7AF-B74F-9E16-F2F98B73CB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
+    <workbookView xWindow="16500" yWindow="1440" windowWidth="30240" windowHeight="26620" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="70">
   <si>
     <t>week_start</t>
   </si>
@@ -219,6 +219,33 @@
   </si>
   <si>
     <t>Sorting, Review</t>
+  </si>
+  <si>
+    <t>spring 2025</t>
+  </si>
+  <si>
+    <t>Control Flow (for loops), mutability</t>
+  </si>
+  <si>
+    <t>Data Structures (lists), random</t>
+  </si>
+  <si>
+    <t>Control Flow + Data Structures, sorting</t>
+  </si>
+  <si>
+    <t>Module 16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">March 8-16, 2025 </t>
+  </si>
+  <si>
+    <t>Operators and Expressions, functions, decomposition</t>
+  </si>
+  <si>
+    <t>Functions, input from user, decomposition</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -229,7 +256,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -256,6 +283,13 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -277,11 +311,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
-  <dimension ref="A1:I64"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1417,7 +1453,7 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -1434,7 +1470,7 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -1682,9 +1718,337 @@
       <c r="I64" t="s">
         <v>60</v>
       </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>61</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="1">
+        <v>45670</v>
+      </c>
+      <c r="H65" t="s">
+        <v>45</v>
+      </c>
+      <c r="I65" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>61</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1">
+        <v>45677</v>
+      </c>
+      <c r="E66" s="1">
+        <v>45677</v>
+      </c>
+      <c r="G66" t="s">
+        <v>32</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>61</v>
+      </c>
+      <c r="B67">
+        <v>3</v>
+      </c>
+      <c r="C67" s="1">
+        <v>45684</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>61</v>
+      </c>
+      <c r="B68">
+        <v>4</v>
+      </c>
+      <c r="C68" s="1">
+        <v>45691</v>
+      </c>
+      <c r="H68" t="s">
+        <v>48</v>
+      </c>
+      <c r="I68" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
+        <v>61</v>
+      </c>
+      <c r="B69">
+        <v>5</v>
+      </c>
+      <c r="C69" s="1">
+        <v>45698</v>
+      </c>
+      <c r="H69" t="s">
+        <v>49</v>
+      </c>
+      <c r="I69" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>61</v>
+      </c>
+      <c r="B70">
+        <v>6</v>
+      </c>
+      <c r="C70" s="1">
+        <v>45705</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2</v>
+      </c>
+      <c r="E70" s="3">
+        <v>45707</v>
+      </c>
+      <c r="H70" t="s">
+        <v>50</v>
+      </c>
+      <c r="I70" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>61</v>
+      </c>
+      <c r="B71">
+        <v>7</v>
+      </c>
+      <c r="C71" s="1">
+        <v>45712</v>
+      </c>
+      <c r="H71" t="s">
+        <v>51</v>
+      </c>
+      <c r="I71" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>61</v>
+      </c>
+      <c r="B72">
+        <v>8</v>
+      </c>
+      <c r="C72" s="1">
+        <v>45719</v>
+      </c>
+      <c r="H72" t="s">
+        <v>52</v>
+      </c>
+      <c r="I72" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>61</v>
+      </c>
+      <c r="B73" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="1">
+        <v>45726</v>
+      </c>
+      <c r="E73" s="3">
+        <v>45724</v>
+      </c>
+      <c r="G73" t="s">
+        <v>66</v>
+      </c>
+      <c r="H73" t="s">
+        <v>69</v>
+      </c>
+      <c r="I73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>61</v>
+      </c>
+      <c r="B74">
+        <v>9</v>
+      </c>
+      <c r="C74" s="1">
+        <v>45733</v>
+      </c>
+      <c r="H74" t="s">
+        <v>53</v>
+      </c>
+      <c r="I74" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>61</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75" s="1">
+        <v>45740</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E75" s="3">
+        <v>45742</v>
+      </c>
+      <c r="H75" t="s">
+        <v>54</v>
+      </c>
+      <c r="I75" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>61</v>
+      </c>
+      <c r="B76">
+        <v>11</v>
+      </c>
+      <c r="C76" s="1">
+        <v>45747</v>
+      </c>
+      <c r="H76" t="s">
+        <v>55</v>
+      </c>
+      <c r="I76" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77">
+        <v>12</v>
+      </c>
+      <c r="C77" s="1">
+        <v>45754</v>
+      </c>
+      <c r="H77" t="s">
+        <v>56</v>
+      </c>
+      <c r="I77" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>61</v>
+      </c>
+      <c r="B78">
+        <v>13</v>
+      </c>
+      <c r="C78" s="1">
+        <v>45761</v>
+      </c>
+      <c r="H78" t="s">
+        <v>57</v>
+      </c>
+      <c r="I78" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>61</v>
+      </c>
+      <c r="B79">
+        <v>14</v>
+      </c>
+      <c r="C79" s="1">
+        <v>45768</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E79" s="5">
+        <v>45770</v>
+      </c>
+      <c r="H79" t="s">
+        <v>58</v>
+      </c>
+      <c r="I79" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>61</v>
+      </c>
+      <c r="B80">
+        <v>15</v>
+      </c>
+      <c r="C80" s="1">
+        <v>45775</v>
+      </c>
+      <c r="H80" t="s">
+        <v>59</v>
+      </c>
+      <c r="I80" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>61</v>
+      </c>
+      <c r="B81">
+        <v>16</v>
+      </c>
+      <c r="C81" s="1">
+        <v>45782</v>
+      </c>
+      <c r="H81" t="s">
+        <v>65</v>
+      </c>
+      <c r="I81" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C82" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{37f4b8a2-ad4f-41b5-9a91-284d2cc38f56}" enabled="1" method="Standard" siteId="{70de1992-07c6-480f-a318-a1afcba03983}" contentBits="0" removed="0"/>
+</clbl:labelList>
 </file>
--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4790A412-A7AF-B74F-9E16-F2F98B73CB7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8785C3F7-B70A-2A41-91B3-9368D75063E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16500" yWindow="1440" windowWidth="30240" windowHeight="26620" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -634,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="G73" sqref="G73"/>
+    <sheetView tabSelected="1" topLeftCell="C41" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="J70" sqref="J70:J71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1756,7 +1756,7 @@
         <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -1773,7 +1773,7 @@
         <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">

--- a/schedule.xlsx
+++ b/schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xinchen/Documents/GitRepo/websites/csc110-spring2025/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8785C3F7-B70A-2A41-91B3-9368D75063E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C7B5A17-50E4-4A4D-83DD-497868E7874E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16500" yWindow="1440" windowWidth="30240" windowHeight="26620" xr2:uid="{8E2BECA6-270F-C740-9ED5-1344B6EDB180}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="73">
   <si>
     <t>week_start</t>
   </si>
@@ -246,6 +246,15 @@
   </si>
   <si>
     <t>N/A</t>
+  </si>
+  <si>
+    <t>Final Exam 2pm Section</t>
+  </si>
+  <si>
+    <t>1:00pm - 3:00pm</t>
+  </si>
+  <si>
+    <t>Final Exam 1pm Section</t>
   </si>
 </sst>
 </file>
@@ -634,8 +643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEFD2179-9860-BE4A-AB2A-CF760AB84B2E}">
   <dimension ref="A1:I82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C41" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70:J71"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="141" zoomScaleNormal="95" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2031,6 +2040,15 @@
       <c r="C81" s="1">
         <v>45782</v>
       </c>
+      <c r="D81" t="s">
+        <v>70</v>
+      </c>
+      <c r="E81" s="5">
+        <v>45786</v>
+      </c>
+      <c r="F81" t="s">
+        <v>71</v>
+      </c>
       <c r="H81" t="s">
         <v>65</v>
       </c>
@@ -2039,7 +2057,27 @@
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="C82" s="1"/>
+      <c r="A82" t="s">
+        <v>61</v>
+      </c>
+      <c r="B82">
+        <v>17</v>
+      </c>
+      <c r="C82" s="1">
+        <v>45789</v>
+      </c>
+      <c r="D82" t="s">
+        <v>72</v>
+      </c>
+      <c r="E82" s="5">
+        <v>45789</v>
+      </c>
+      <c r="F82" t="s">
+        <v>71</v>
+      </c>
+      <c r="I82" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
